--- a/biology/Botanique/Coquelicot_douteux/Coquelicot_douteux.xlsx
+++ b/biology/Botanique/Coquelicot_douteux/Coquelicot_douteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pavot douteux, aussi nommé Petit coquelicot ou Coquelicot douteux (Papaver dubium), est une espèce de pavot de la famille des papavéracées.
 C'est un cousin du Pavot somnifère, mais surtout proche du Coquelicot, qui croît en Europe dans les terres meubles et les anciennes friches.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de mars à juillet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à juillet.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Papaer dubium se rencontre dans les champs de céréales, dans les oliveraies et sur les bords des chemins[1].
-L'espèce est présente dans tout le bassin méditerranéen[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papaer dubium se rencontre dans les champs de céréales, dans les oliveraies et sur les bords des chemins.
+L'espèce est présente dans tout le bassin méditerranéen.
 </t>
         </is>
       </c>
